--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ucc/Documents/GitHub/EXCEL-TEST/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{393AD1B2-95DC-AC49-81D4-FE1A9357BD46}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F32B41-D69A-CC40-B277-7FE68F30210B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{8BFE64A0-2980-EE44-973E-8E4EED8D40D3}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>EIRCOM</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>PARTH+new plan</t>
+  </si>
+  <si>
+    <t>new data</t>
   </si>
 </sst>
 </file>
@@ -529,10 +532,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7260D131-245F-5F4F-AA23-021B22B992E9}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -654,6 +657,11 @@
         <v>520</v>
       </c>
     </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ucc/Documents/GitHub/EXCEL-TEST/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TIMES\Documents\GitHub\EXCEL-TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F32B41-D69A-CC40-B277-7FE68F30210B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08CEC3D-5D15-47AF-99E9-8617D966291F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{8BFE64A0-2980-EE44-973E-8E4EED8D40D3}"/>
   </bookViews>
@@ -16,17 +16,23 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>EIRCOM</t>
   </si>
@@ -39,12 +45,15 @@
   <si>
     <t>new data</t>
   </si>
+  <si>
+    <t>latest data</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -395,12 +404,12 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1">
         <v>250</v>
       </c>
@@ -415,7 +424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>730</v>
       </c>
@@ -438,7 +447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>730</v>
       </c>
@@ -461,19 +470,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="C4">
         <f t="shared" ref="C4:C5" si="0">A4+(B4*24)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="C5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>250</v>
       </c>
@@ -485,7 +494,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>730</v>
       </c>
@@ -505,7 +514,7 @@
         <v>23.333333333333332</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>730</v>
       </c>
@@ -535,87 +544,87 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>-110</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>-150</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>1540</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>-400</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>-625</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>-20</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>-45</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>-45</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>1540</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>-625</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>-20</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>-100</v>
       </c>
@@ -623,7 +632,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>-350</v>
       </c>
@@ -631,35 +640,38 @@
         <v>405</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>-140</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>-150</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A22">
         <f>SUM(A1:A21)</f>
         <v>520</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TIMES\Documents\GitHub\EXCEL-TEST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ucc/Documents/GitHub/EXCEL-TEST/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08CEC3D-5D15-47AF-99E9-8617D966291F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963108EF-278D-1040-BA75-36ED2C335021}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{8BFE64A0-2980-EE44-973E-8E4EED8D40D3}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{8BFE64A0-2980-EE44-973E-8E4EED8D40D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,18 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>EIRCOM</t>
   </si>
@@ -48,12 +42,15 @@
   <si>
     <t>latest data</t>
   </si>
+  <si>
+    <t>new</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -404,12 +401,12 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="6" max="6" width="15.1875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6">
       <c r="A1">
         <v>250</v>
       </c>
@@ -424,7 +421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>730</v>
       </c>
@@ -447,7 +444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>730</v>
       </c>
@@ -470,19 +467,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6">
       <c r="C4">
         <f t="shared" ref="C4:C5" si="0">A4+(B4*24)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6">
       <c r="C5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>250</v>
       </c>
@@ -494,7 +491,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>730</v>
       </c>
@@ -514,7 +511,7 @@
         <v>23.333333333333332</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>730</v>
       </c>
@@ -544,87 +541,87 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8">
       <c r="A1">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>-110</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>-150</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>1540</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>-400</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>-625</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>-20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>-45</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>-45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>1540</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>-625</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>-20</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>-100</v>
       </c>
@@ -632,7 +629,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>-350</v>
       </c>
@@ -640,38 +637,41 @@
         <v>405</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>-140</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>-150</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8">
       <c r="A22">
         <f>SUM(A1:A21)</f>
         <v>520</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>3</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ucc/Documents/GitHub/EXCEL-TEST/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963108EF-278D-1040-BA75-36ED2C335021}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6F1599-5773-5A4D-8682-ADA5A51B3B2D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{8BFE64A0-2980-EE44-973E-8E4EED8D40D3}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>EIRCOM</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>new</t>
+  </si>
+  <si>
+    <t>v2.0</t>
   </si>
 </sst>
 </file>
@@ -541,7 +544,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -673,6 +676,9 @@
       <c r="E24" t="s">
         <v>5</v>
       </c>
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ucc/Documents/GitHub/EXCEL-TEST/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6F1599-5773-5A4D-8682-ADA5A51B3B2D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0105ACE7-A1A2-984A-B62E-F88861769612}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{8BFE64A0-2980-EE44-973E-8E4EED8D40D3}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>EIRCOM</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>v2.0</t>
+  </si>
+  <si>
+    <t>v3.0</t>
   </si>
 </sst>
 </file>
@@ -544,7 +547,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -679,6 +682,9 @@
       <c r="F24" t="s">
         <v>6</v>
       </c>
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ucc/Documents/GitHub/EXCEL-TEST/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0105ACE7-A1A2-984A-B62E-F88861769612}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6F1599-5773-5A4D-8682-ADA5A51B3B2D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{8BFE64A0-2980-EE44-973E-8E4EED8D40D3}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>EIRCOM</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>v2.0</t>
-  </si>
-  <si>
-    <t>v3.0</t>
   </si>
 </sst>
 </file>
@@ -547,7 +544,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -682,9 +679,6 @@
       <c r="F24" t="s">
         <v>6</v>
       </c>
-      <c r="G24" t="s">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ucc/Documents/GitHub/EXCEL-TEST/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6F1599-5773-5A4D-8682-ADA5A51B3B2D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963108EF-278D-1040-BA75-36ED2C335021}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{8BFE64A0-2980-EE44-973E-8E4EED8D40D3}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>EIRCOM</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>new</t>
-  </si>
-  <si>
-    <t>v2.0</t>
   </si>
 </sst>
 </file>
@@ -544,7 +541,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -676,9 +673,6 @@
       <c r="E24" t="s">
         <v>5</v>
       </c>
-      <c r="F24" t="s">
-        <v>6</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
